--- a/db/v3.mmFB.xlsx
+++ b/db/v3.mmFB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hua/Documents/Workspace/_singleCell/celltypeAnno/publicVersion/ctestimate/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hua/Documents/Workspace/_singleCell/celltypeAnno/github_version/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F7E3CC-10E5-3C45-92D2-86B54D35D89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07270CDD-E8F8-4043-AD6D-3594408F1CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="5040" windowWidth="22180" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11080" yWindow="5180" windowWidth="22180" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="787">
   <si>
     <t>tissueType</t>
   </si>
@@ -1325,12 +1325,6 @@
     <t>Neur717</t>
   </si>
   <si>
-    <t>Calb2,Mylk,Ntng1,Id4,St6galnac5,Ncald</t>
-  </si>
-  <si>
-    <t>Neur718</t>
-  </si>
-  <si>
     <t>Calb2,Fgf15,Zic4,Chst1,Rab3b,Ncald</t>
   </si>
   <si>
@@ -1355,24 +1349,6 @@
     <t>Neur722</t>
   </si>
   <si>
-    <t>Kitl,Trbc2,Ntng1,Prox1os,Nptxr,Gm8773</t>
-  </si>
-  <si>
-    <t>Neur723</t>
-  </si>
-  <si>
-    <t>Vgf,Klhl26,Ntng1,1500035N22Rik,Cgref1,Rab40b</t>
-  </si>
-  <si>
-    <t>Neur724</t>
-  </si>
-  <si>
-    <t>Slc18a2,5033430I15Rik,Ntng1,Grb14,Camk4,Adcy1</t>
-  </si>
-  <si>
-    <t>Neur725</t>
-  </si>
-  <si>
     <t>Pmch,Cntnap5b,Fam46a,Dmrtb1,Lrrtm4,Wdpcp</t>
   </si>
   <si>
@@ -1856,9 +1832,6 @@
     <t>Glut_F30</t>
   </si>
   <si>
-    <t>Glut_F31</t>
-  </si>
-  <si>
     <t>Glut_F32</t>
   </si>
   <si>
@@ -1871,15 +1844,6 @@
     <t>Glut_F35</t>
   </si>
   <si>
-    <t>Glut_F36</t>
-  </si>
-  <si>
-    <t>Glut_F37</t>
-  </si>
-  <si>
-    <t>Glut_F38</t>
-  </si>
-  <si>
     <t>Glut_F39</t>
   </si>
   <si>
@@ -2349,6 +2313,87 @@
   </si>
   <si>
     <t>Cycling progenitors</t>
+  </si>
+  <si>
+    <t>Glutamatergic (Glut)</t>
+  </si>
+  <si>
+    <t>Slc17a7,Slc17a8,Slc17a6</t>
+  </si>
+  <si>
+    <t>Glut</t>
+  </si>
+  <si>
+    <t>Neruon</t>
+  </si>
+  <si>
+    <t>Whole brain</t>
+  </si>
+  <si>
+    <t>PMID: 37034735</t>
+  </si>
+  <si>
+    <t>GABAergic (GABA)</t>
+  </si>
+  <si>
+    <t>Slc32a1,Slc18a2,Gad2,Aldh1a1,Gad1</t>
+  </si>
+  <si>
+    <t>GABA</t>
+  </si>
+  <si>
+    <t>Glycinergic (Glyc)</t>
+  </si>
+  <si>
+    <t>Slc6a5</t>
+  </si>
+  <si>
+    <t>Glyc</t>
+  </si>
+  <si>
+    <t>Cholinergic (Chol)</t>
+  </si>
+  <si>
+    <t>Chat,Slc18a3</t>
+  </si>
+  <si>
+    <t>Chol</t>
+  </si>
+  <si>
+    <t>Dopaminergic (Dopa)</t>
+  </si>
+  <si>
+    <t>Slc18a2,Th,Slc6a3,Ddc</t>
+  </si>
+  <si>
+    <t>Dopa</t>
+  </si>
+  <si>
+    <t>Serotonergic (Sero)</t>
+  </si>
+  <si>
+    <t>Tph2,Slc18a2,Ddc,Slc6a4</t>
+  </si>
+  <si>
+    <t>Sero</t>
+  </si>
+  <si>
+    <t>Noradrenergic (Nora)</t>
+  </si>
+  <si>
+    <t>Slc6a2,Slc18a2,Dbh</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Histaminergic (Hist)</t>
+  </si>
+  <si>
+    <t>Hdc,Slc18a2</t>
+  </si>
+  <si>
+    <t>Hist</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2407,46 +2452,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2750,11 +2769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K667"/>
+  <dimension ref="A1:K663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2813,10 +2832,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>207</v>
@@ -2825,10 +2844,10 @@
         <v>207</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2836,10 +2855,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -2851,10 +2870,10 @@
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2862,10 +2881,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -2874,13 +2893,13 @@
         <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2888,10 +2907,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>205</v>
@@ -2900,13 +2919,13 @@
         <v>205</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2914,25 +2933,25 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2940,25 +2959,25 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2966,25 +2985,25 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2992,25 +3011,25 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3018,25 +3037,25 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3044,25 +3063,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3070,25 +3089,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3096,25 +3115,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3122,25 +3141,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3148,25 +3167,25 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3174,25 +3193,25 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3200,25 +3219,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3226,22 +3245,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3249,22 +3268,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3272,22 +3291,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3295,10 +3314,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>221</v>
@@ -3307,10 +3326,10 @@
         <v>221</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3318,22 +3337,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3341,19 +3360,19 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -3362,19 +3381,19 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -3383,19 +3402,19 @@
         <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3403,19 +3422,19 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3423,19 +3442,19 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3443,22 +3462,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3466,22 +3485,22 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3489,39 +3508,39 @@
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="E31" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>769</v>
+      <c r="F31" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -5318,29 +5337,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="5" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K101" s="5" t="s">
+      <c r="K101" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5349,22 +5368,22 @@
         <v>11</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>17</v>
@@ -5375,22 +5394,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>17</v>
@@ -5401,22 +5420,22 @@
         <v>11</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>17</v>
@@ -5427,22 +5446,22 @@
         <v>11</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>17</v>
@@ -5453,22 +5472,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>17</v>
@@ -5479,22 +5498,22 @@
         <v>11</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>17</v>
@@ -5505,22 +5524,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>17</v>
@@ -5531,22 +5550,22 @@
         <v>11</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>17</v>
@@ -5557,22 +5576,22 @@
         <v>11</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>17</v>
@@ -5583,22 +5602,22 @@
         <v>11</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>17</v>
@@ -5609,22 +5628,22 @@
         <v>11</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>17</v>
@@ -5635,22 +5654,22 @@
         <v>11</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>17</v>
@@ -5661,22 +5680,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>17</v>
@@ -5687,22 +5706,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>17</v>
@@ -5713,22 +5732,22 @@
         <v>11</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>17</v>
@@ -5739,7 +5758,7 @@
         <v>11</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>223</v>
@@ -5765,7 +5784,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>231</v>
@@ -5791,7 +5810,7 @@
         <v>11</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>249</v>
@@ -5817,7 +5836,7 @@
         <v>11</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>233</v>
@@ -5843,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>235</v>
@@ -5869,7 +5888,7 @@
         <v>11</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>237</v>
@@ -5895,7 +5914,7 @@
         <v>11</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>239</v>
@@ -5921,7 +5940,7 @@
         <v>11</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>241</v>
@@ -5947,7 +5966,7 @@
         <v>11</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>243</v>
@@ -5973,7 +5992,7 @@
         <v>11</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>245</v>
@@ -5999,7 +6018,7 @@
         <v>11</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>247</v>
@@ -6025,16 +6044,16 @@
         <v>11</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>208</v>
@@ -6051,16 +6070,16 @@
         <v>11</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>208</v>
@@ -6077,16 +6096,16 @@
         <v>11</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>208</v>
@@ -6103,16 +6122,16 @@
         <v>11</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>208</v>
@@ -6129,16 +6148,16 @@
         <v>11</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>208</v>
@@ -6155,16 +6174,16 @@
         <v>11</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>208</v>
@@ -6181,16 +6200,16 @@
         <v>11</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>208</v>
@@ -6207,16 +6226,16 @@
         <v>11</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>208</v>
@@ -6233,16 +6252,16 @@
         <v>11</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>208</v>
@@ -6259,16 +6278,16 @@
         <v>11</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>208</v>
@@ -6285,16 +6304,16 @@
         <v>11</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>208</v>
@@ -6311,16 +6330,16 @@
         <v>11</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>208</v>
@@ -6337,7 +6356,7 @@
         <v>11</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>228</v>
@@ -6366,7 +6385,7 @@
         <v>11</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>254</v>
@@ -6392,7 +6411,7 @@
         <v>11</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>265</v>
@@ -6418,7 +6437,7 @@
         <v>11</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>266</v>
@@ -6444,7 +6463,7 @@
         <v>11</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>292</v>
@@ -6470,7 +6489,7 @@
         <v>11</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>256</v>
@@ -6496,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>296</v>
@@ -6522,7 +6541,7 @@
         <v>11</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>298</v>
@@ -6548,7 +6567,7 @@
         <v>11</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>300</v>
@@ -6574,7 +6593,7 @@
         <v>11</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>302</v>
@@ -6600,7 +6619,7 @@
         <v>11</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>304</v>
@@ -6626,7 +6645,7 @@
         <v>11</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>306</v>
@@ -6652,7 +6671,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>308</v>
@@ -6678,7 +6697,7 @@
         <v>11</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>310</v>
@@ -6704,7 +6723,7 @@
         <v>11</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>312</v>
@@ -6730,7 +6749,7 @@
         <v>11</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>314</v>
@@ -6756,7 +6775,7 @@
         <v>11</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>259</v>
@@ -6782,7 +6801,7 @@
         <v>11</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>316</v>
@@ -6808,7 +6827,7 @@
         <v>11</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>318</v>
@@ -6834,7 +6853,7 @@
         <v>11</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>320</v>
@@ -6860,7 +6879,7 @@
         <v>11</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>322</v>
@@ -6886,7 +6905,7 @@
         <v>11</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>324</v>
@@ -6912,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>326</v>
@@ -6938,7 +6957,7 @@
         <v>11</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>328</v>
@@ -6964,7 +6983,7 @@
         <v>11</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>330</v>
@@ -6990,7 +7009,7 @@
         <v>11</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>332</v>
@@ -7016,7 +7035,7 @@
         <v>11</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>334</v>
@@ -7042,7 +7061,7 @@
         <v>11</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>261</v>
@@ -7068,7 +7087,7 @@
         <v>11</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>336</v>
@@ -7094,7 +7113,7 @@
         <v>11</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>338</v>
@@ -7120,7 +7139,7 @@
         <v>11</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>340</v>
@@ -7146,7 +7165,7 @@
         <v>11</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>342</v>
@@ -7172,7 +7191,7 @@
         <v>11</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>344</v>
@@ -7198,7 +7217,7 @@
         <v>11</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>346</v>
@@ -7224,7 +7243,7 @@
         <v>11</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>348</v>
@@ -7250,7 +7269,7 @@
         <v>11</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>350</v>
@@ -7276,7 +7295,7 @@
         <v>11</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>352</v>
@@ -7302,7 +7321,7 @@
         <v>11</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>354</v>
@@ -7328,7 +7347,7 @@
         <v>11</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>263</v>
@@ -7354,7 +7373,7 @@
         <v>11</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>356</v>
@@ -7380,7 +7399,7 @@
         <v>11</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>358</v>
@@ -7406,7 +7425,7 @@
         <v>11</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>360</v>
@@ -7432,7 +7451,7 @@
         <v>11</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>362</v>
@@ -7458,7 +7477,7 @@
         <v>11</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>364</v>
@@ -7484,7 +7503,7 @@
         <v>11</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>366</v>
@@ -7510,7 +7529,7 @@
         <v>11</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>368</v>
@@ -7536,7 +7555,7 @@
         <v>11</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>370</v>
@@ -7562,7 +7581,7 @@
         <v>11</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>372</v>
@@ -7588,7 +7607,7 @@
         <v>11</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>374</v>
@@ -7614,7 +7633,7 @@
         <v>11</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>284</v>
@@ -7640,7 +7659,7 @@
         <v>11</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>376</v>
@@ -7666,7 +7685,7 @@
         <v>11</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>378</v>
@@ -7692,7 +7711,7 @@
         <v>11</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>380</v>
@@ -7718,7 +7737,7 @@
         <v>11</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>382</v>
@@ -7744,7 +7763,7 @@
         <v>11</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>384</v>
@@ -7770,7 +7789,7 @@
         <v>11</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>386</v>
@@ -7796,7 +7815,7 @@
         <v>11</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>388</v>
@@ -7822,16 +7841,16 @@
         <v>11</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>203</v>
@@ -7848,16 +7867,16 @@
         <v>11</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>203</v>
@@ -7874,7 +7893,7 @@
         <v>11</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>286</v>
@@ -7900,16 +7919,16 @@
         <v>11</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>203</v>
@@ -7926,7 +7945,7 @@
         <v>11</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>288</v>
@@ -7952,7 +7971,7 @@
         <v>11</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>290</v>
@@ -7978,7 +7997,7 @@
         <v>11</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>294</v>
@@ -8004,7 +8023,7 @@
         <v>11</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>251</v>
@@ -8030,7 +8049,7 @@
         <v>11</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>282</v>
@@ -8056,7 +8075,7 @@
         <v>11</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>390</v>
@@ -8082,7 +8101,7 @@
         <v>11</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>392</v>
@@ -8108,7 +8127,7 @@
         <v>11</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>394</v>
@@ -8134,7 +8153,7 @@
         <v>11</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>396</v>
@@ -8160,7 +8179,7 @@
         <v>11</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>398</v>
@@ -8186,7 +8205,7 @@
         <v>11</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>400</v>
@@ -8212,7 +8231,7 @@
         <v>11</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>402</v>
@@ -8238,7 +8257,7 @@
         <v>11</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>404</v>
@@ -8264,7 +8283,7 @@
         <v>11</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>406</v>
@@ -8290,7 +8309,7 @@
         <v>11</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>408</v>
@@ -8316,7 +8335,7 @@
         <v>11</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>410</v>
@@ -8342,7 +8361,7 @@
         <v>11</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>412</v>
@@ -8368,7 +8387,7 @@
         <v>11</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>414</v>
@@ -8394,7 +8413,7 @@
         <v>11</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>416</v>
@@ -8420,7 +8439,7 @@
         <v>11</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>418</v>
@@ -8446,7 +8465,7 @@
         <v>11</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>420</v>
@@ -8472,7 +8491,7 @@
         <v>11</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>422</v>
@@ -8498,7 +8517,7 @@
         <v>11</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>424</v>
@@ -8524,7 +8543,7 @@
         <v>11</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>426</v>
@@ -8550,7 +8569,7 @@
         <v>11</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>269</v>
@@ -8576,7 +8595,7 @@
         <v>11</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>428</v>
@@ -8602,7 +8621,7 @@
         <v>11</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>430</v>
@@ -8628,7 +8647,7 @@
         <v>11</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>432</v>
@@ -8654,7 +8673,7 @@
         <v>11</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>434</v>
@@ -8680,7 +8699,7 @@
         <v>11</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>436</v>
@@ -8706,7 +8725,7 @@
         <v>11</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>438</v>
@@ -8732,16 +8751,16 @@
         <v>11</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>440</v>
+        <v>271</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>441</v>
+        <v>270</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>203</v>
@@ -8758,16 +8777,16 @@
         <v>11</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>203</v>
@@ -8784,16 +8803,16 @@
         <v>11</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>203</v>
@@ -8810,16 +8829,16 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>203</v>
@@ -8836,16 +8855,16 @@
         <v>11</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>271</v>
+        <v>452</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>270</v>
+        <v>453</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>203</v>
@@ -8862,16 +8881,16 @@
         <v>11</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>203</v>
@@ -8888,16 +8907,16 @@
         <v>11</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>451</v>
+        <v>273</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>203</v>
@@ -8914,16 +8933,16 @@
         <v>11</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>458</v>
+        <v>274</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>459</v>
+        <v>275</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>203</v>
@@ -8940,16 +8959,16 @@
         <v>11</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>619</v>
+        <v>575</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>460</v>
+        <v>276</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>461</v>
+        <v>277</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>203</v>
@@ -8966,16 +8985,16 @@
         <v>11</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>462</v>
+        <v>278</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>463</v>
+        <v>279</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>203</v>
@@ -8992,16 +9011,16 @@
         <v>11</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>203</v>
@@ -9018,25 +9037,28 @@
         <v>11</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>582</v>
+        <v>760</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>274</v>
+        <v>761</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>275</v>
+        <v>762</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>203</v>
+        <v>763</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>252</v>
+        <v>764</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>17</v>
+        <v>765</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
@@ -9044,25 +9066,28 @@
         <v>11</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>583</v>
+        <v>766</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>276</v>
+        <v>767</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>277</v>
+        <v>768</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>203</v>
+        <v>763</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>252</v>
+        <v>764</v>
       </c>
       <c r="K244" s="2" t="s">
-        <v>17</v>
+        <v>765</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -9070,672 +9095,794 @@
         <v>11</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>584</v>
+        <v>769</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>278</v>
+        <v>770</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>279</v>
+        <v>771</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>203</v>
+        <v>763</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>769</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>252</v>
+        <v>764</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I246" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K246" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="K247" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="K250" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="459" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J459" s="5"/>
+    </row>
+    <row r="460" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J460" s="5"/>
+    </row>
+    <row r="461" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J461" s="5"/>
+    </row>
+    <row r="462" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J462" s="5"/>
     </row>
     <row r="463" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J463" s="7"/>
+      <c r="J463" s="5"/>
     </row>
     <row r="464" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J464" s="7"/>
+      <c r="J464" s="5"/>
     </row>
     <row r="465" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J465" s="7"/>
+      <c r="J465" s="5"/>
     </row>
     <row r="466" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J466" s="7"/>
+      <c r="J466" s="5"/>
     </row>
     <row r="467" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J467" s="7"/>
+      <c r="J467" s="5"/>
     </row>
     <row r="468" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J468" s="7"/>
+      <c r="J468" s="5"/>
     </row>
     <row r="469" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J469" s="7"/>
+      <c r="J469" s="5"/>
     </row>
     <row r="470" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J470" s="7"/>
+      <c r="J470" s="5"/>
     </row>
     <row r="471" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J471" s="7"/>
+      <c r="J471" s="5"/>
     </row>
     <row r="472" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J472" s="7"/>
+      <c r="J472" s="5"/>
     </row>
     <row r="473" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J473" s="7"/>
+      <c r="J473" s="5"/>
     </row>
     <row r="474" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J474" s="7"/>
+      <c r="J474" s="5"/>
     </row>
     <row r="475" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J475" s="7"/>
+      <c r="J475" s="5"/>
     </row>
     <row r="476" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J476" s="7"/>
+      <c r="J476" s="5"/>
     </row>
     <row r="477" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J477" s="7"/>
+      <c r="J477" s="5"/>
     </row>
     <row r="478" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J478" s="7"/>
+      <c r="J478" s="5"/>
     </row>
     <row r="479" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J479" s="7"/>
+      <c r="J479" s="5"/>
     </row>
     <row r="480" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J480" s="7"/>
+      <c r="J480" s="5"/>
     </row>
     <row r="481" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J481" s="7"/>
+      <c r="J481" s="5"/>
     </row>
     <row r="482" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J482" s="7"/>
+      <c r="J482" s="5"/>
     </row>
     <row r="483" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J483" s="7"/>
+      <c r="J483" s="5"/>
     </row>
     <row r="484" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J484" s="7"/>
+      <c r="J484" s="5"/>
     </row>
     <row r="485" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J485" s="7"/>
+      <c r="J485" s="5"/>
     </row>
     <row r="486" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J486" s="7"/>
+      <c r="J486" s="5"/>
     </row>
     <row r="487" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J487" s="7"/>
+      <c r="J487" s="5"/>
     </row>
     <row r="488" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J488" s="7"/>
+      <c r="J488" s="5"/>
     </row>
     <row r="489" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J489" s="7"/>
+      <c r="J489" s="5"/>
     </row>
     <row r="490" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J490" s="7"/>
+      <c r="J490" s="5"/>
     </row>
     <row r="491" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J491" s="7"/>
+      <c r="J491" s="5"/>
     </row>
     <row r="492" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J492" s="7"/>
+      <c r="J492" s="5"/>
     </row>
     <row r="493" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J493" s="7"/>
+      <c r="J493" s="5"/>
     </row>
     <row r="494" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J494" s="7"/>
+      <c r="J494" s="5"/>
     </row>
     <row r="495" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J495" s="7"/>
+      <c r="J495" s="5"/>
     </row>
     <row r="496" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J496" s="7"/>
+      <c r="J496" s="5"/>
     </row>
     <row r="497" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J497" s="7"/>
+      <c r="J497" s="5"/>
     </row>
     <row r="498" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J498" s="7"/>
+      <c r="J498" s="5"/>
     </row>
     <row r="499" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J499" s="7"/>
+      <c r="J499" s="5"/>
     </row>
     <row r="500" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J500" s="7"/>
+      <c r="J500" s="5"/>
     </row>
     <row r="501" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J501" s="7"/>
+      <c r="J501" s="5"/>
     </row>
     <row r="502" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J502" s="7"/>
+      <c r="J502" s="5"/>
     </row>
     <row r="503" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J503" s="7"/>
+      <c r="J503" s="5"/>
     </row>
     <row r="504" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J504" s="7"/>
+      <c r="J504" s="5"/>
     </row>
     <row r="505" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J505" s="7"/>
+      <c r="J505" s="5"/>
     </row>
     <row r="506" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J506" s="7"/>
+      <c r="J506" s="5"/>
     </row>
     <row r="507" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J507" s="7"/>
+      <c r="J507" s="5"/>
     </row>
     <row r="508" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J508" s="7"/>
+      <c r="J508" s="5"/>
     </row>
     <row r="509" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J509" s="7"/>
+      <c r="J509" s="5"/>
     </row>
     <row r="510" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J510" s="7"/>
+      <c r="J510" s="5"/>
     </row>
     <row r="511" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J511" s="7"/>
+      <c r="J511" s="5"/>
     </row>
     <row r="512" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J512" s="7"/>
+      <c r="J512" s="5"/>
     </row>
     <row r="513" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J513" s="7"/>
+      <c r="J513" s="5"/>
     </row>
     <row r="514" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J514" s="7"/>
+      <c r="J514" s="5"/>
     </row>
     <row r="515" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J515" s="7"/>
+      <c r="J515" s="5"/>
     </row>
     <row r="516" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J516" s="7"/>
+      <c r="J516" s="5"/>
     </row>
     <row r="517" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J517" s="7"/>
+      <c r="J517" s="5"/>
     </row>
     <row r="518" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J518" s="7"/>
+      <c r="J518" s="5"/>
     </row>
     <row r="519" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J519" s="7"/>
+      <c r="J519" s="5"/>
     </row>
     <row r="520" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J520" s="7"/>
+      <c r="J520" s="5"/>
     </row>
     <row r="521" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J521" s="7"/>
+      <c r="J521" s="5"/>
     </row>
     <row r="522" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J522" s="7"/>
+      <c r="J522" s="5"/>
     </row>
     <row r="523" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J523" s="7"/>
+      <c r="J523" s="5"/>
     </row>
     <row r="524" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J524" s="7"/>
+      <c r="J524" s="5"/>
     </row>
     <row r="525" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J525" s="7"/>
+      <c r="J525" s="5"/>
     </row>
     <row r="526" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J526" s="7"/>
+      <c r="J526" s="5"/>
     </row>
     <row r="527" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J527" s="7"/>
+      <c r="J527" s="5"/>
     </row>
     <row r="528" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J528" s="7"/>
+      <c r="J528" s="5"/>
     </row>
     <row r="529" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J529" s="7"/>
+      <c r="J529" s="5"/>
     </row>
     <row r="530" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J530" s="7"/>
+      <c r="J530" s="5"/>
     </row>
     <row r="531" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J531" s="7"/>
+      <c r="J531" s="5"/>
     </row>
     <row r="532" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J532" s="7"/>
+      <c r="J532" s="5"/>
     </row>
     <row r="533" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J533" s="7"/>
+      <c r="J533" s="5"/>
     </row>
     <row r="534" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J534" s="7"/>
+      <c r="J534" s="5"/>
     </row>
     <row r="535" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J535" s="7"/>
+      <c r="J535" s="5"/>
     </row>
     <row r="536" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J536" s="7"/>
+      <c r="J536" s="5"/>
     </row>
     <row r="537" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J537" s="7"/>
+      <c r="J537" s="5"/>
     </row>
     <row r="538" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J538" s="7"/>
+      <c r="J538" s="5"/>
     </row>
     <row r="539" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J539" s="7"/>
+      <c r="J539" s="5"/>
     </row>
     <row r="540" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J540" s="7"/>
+      <c r="J540" s="5"/>
     </row>
     <row r="541" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J541" s="7"/>
+      <c r="J541" s="5"/>
     </row>
     <row r="542" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J542" s="7"/>
+      <c r="J542" s="5"/>
     </row>
     <row r="543" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J543" s="7"/>
+      <c r="J543" s="5"/>
     </row>
     <row r="544" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J544" s="7"/>
+      <c r="J544" s="5"/>
     </row>
     <row r="545" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J545" s="7"/>
+      <c r="J545" s="5"/>
     </row>
     <row r="546" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J546" s="7"/>
+      <c r="J546" s="5"/>
     </row>
     <row r="547" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J547" s="7"/>
+      <c r="J547" s="5"/>
     </row>
     <row r="548" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J548" s="7"/>
+      <c r="J548" s="5"/>
     </row>
     <row r="549" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J549" s="7"/>
+      <c r="J549" s="5"/>
     </row>
     <row r="550" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J550" s="7"/>
+      <c r="J550" s="5"/>
     </row>
     <row r="551" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J551" s="7"/>
+      <c r="J551" s="5"/>
     </row>
     <row r="552" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J552" s="7"/>
+      <c r="J552" s="5"/>
     </row>
     <row r="553" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J553" s="7"/>
+      <c r="J553" s="5"/>
     </row>
     <row r="554" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J554" s="7"/>
+      <c r="J554" s="5"/>
     </row>
     <row r="555" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J555" s="7"/>
+      <c r="J555" s="5"/>
     </row>
     <row r="556" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J556" s="7"/>
+      <c r="J556" s="5"/>
     </row>
     <row r="557" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J557" s="7"/>
+      <c r="J557" s="5"/>
     </row>
     <row r="558" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J558" s="7"/>
+      <c r="J558" s="5"/>
     </row>
     <row r="559" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J559" s="7"/>
+      <c r="J559" s="5"/>
     </row>
     <row r="560" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J560" s="7"/>
+      <c r="J560" s="5"/>
     </row>
     <row r="561" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J561" s="7"/>
+      <c r="J561" s="5"/>
     </row>
     <row r="562" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J562" s="7"/>
+      <c r="J562" s="5"/>
     </row>
     <row r="563" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J563" s="7"/>
+      <c r="J563" s="5"/>
     </row>
     <row r="564" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J564" s="7"/>
+      <c r="J564" s="5"/>
     </row>
     <row r="565" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J565" s="7"/>
+      <c r="J565" s="5"/>
     </row>
     <row r="566" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J566" s="7"/>
+      <c r="J566" s="5"/>
     </row>
     <row r="567" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J567" s="7"/>
+      <c r="J567" s="5"/>
     </row>
     <row r="568" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J568" s="7"/>
+      <c r="J568" s="5"/>
     </row>
     <row r="569" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J569" s="7"/>
+      <c r="J569" s="5"/>
     </row>
     <row r="570" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J570" s="7"/>
+      <c r="J570" s="5"/>
     </row>
     <row r="571" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J571" s="7"/>
+      <c r="J571" s="5"/>
     </row>
     <row r="572" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J572" s="7"/>
+      <c r="J572" s="5"/>
     </row>
     <row r="573" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J573" s="7"/>
+      <c r="J573" s="5"/>
     </row>
     <row r="574" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J574" s="7"/>
+      <c r="J574" s="5"/>
     </row>
     <row r="575" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J575" s="7"/>
+      <c r="J575" s="5"/>
     </row>
     <row r="576" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J576" s="7"/>
+      <c r="J576" s="5"/>
     </row>
     <row r="577" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J577" s="7"/>
+      <c r="J577" s="5"/>
     </row>
     <row r="578" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J578" s="7"/>
+      <c r="J578" s="5"/>
     </row>
     <row r="579" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J579" s="7"/>
+      <c r="J579" s="5"/>
     </row>
     <row r="580" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J580" s="7"/>
+      <c r="J580" s="5"/>
     </row>
     <row r="581" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J581" s="7"/>
+      <c r="J581" s="5"/>
     </row>
     <row r="582" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J582" s="7"/>
+      <c r="J582" s="5"/>
     </row>
     <row r="583" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J583" s="7"/>
+      <c r="J583" s="5"/>
     </row>
     <row r="584" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J584" s="7"/>
+      <c r="J584" s="5"/>
     </row>
     <row r="585" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J585" s="7"/>
+      <c r="J585" s="5"/>
     </row>
     <row r="586" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J586" s="7"/>
+      <c r="J586" s="5"/>
     </row>
     <row r="587" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J587" s="7"/>
+      <c r="J587" s="5"/>
     </row>
     <row r="588" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J588" s="7"/>
+      <c r="J588" s="5"/>
     </row>
     <row r="589" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J589" s="7"/>
+      <c r="J589" s="5"/>
     </row>
     <row r="590" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J590" s="7"/>
+      <c r="J590" s="5"/>
     </row>
     <row r="591" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J591" s="7"/>
+      <c r="J591" s="5"/>
     </row>
     <row r="592" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J592" s="7"/>
+      <c r="J592" s="5"/>
     </row>
     <row r="593" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J593" s="7"/>
+      <c r="J593" s="5"/>
     </row>
     <row r="594" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J594" s="7"/>
+      <c r="J594" s="5"/>
     </row>
     <row r="595" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J595" s="7"/>
+      <c r="J595" s="5"/>
     </row>
     <row r="596" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J596" s="7"/>
+      <c r="J596" s="5"/>
     </row>
     <row r="597" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J597" s="7"/>
+      <c r="J597" s="5"/>
     </row>
     <row r="598" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J598" s="7"/>
+      <c r="J598" s="5"/>
     </row>
     <row r="599" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J599" s="7"/>
+      <c r="J599" s="5"/>
     </row>
     <row r="600" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J600" s="7"/>
+      <c r="J600" s="5"/>
     </row>
     <row r="601" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J601" s="7"/>
+      <c r="J601" s="5"/>
     </row>
     <row r="602" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J602" s="7"/>
+      <c r="J602" s="5"/>
     </row>
     <row r="603" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J603" s="7"/>
+      <c r="J603" s="5"/>
     </row>
     <row r="604" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J604" s="7"/>
+      <c r="J604" s="5"/>
     </row>
     <row r="605" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J605" s="7"/>
+      <c r="J605" s="5"/>
     </row>
     <row r="606" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J606" s="7"/>
+      <c r="J606" s="5"/>
     </row>
     <row r="607" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J607" s="7"/>
+      <c r="J607" s="5"/>
     </row>
     <row r="608" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J608" s="7"/>
+      <c r="J608" s="5"/>
     </row>
     <row r="609" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J609" s="7"/>
+      <c r="J609" s="5"/>
     </row>
     <row r="610" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J610" s="7"/>
+      <c r="J610" s="5"/>
     </row>
     <row r="611" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J611" s="7"/>
+      <c r="J611" s="5"/>
     </row>
     <row r="612" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J612" s="7"/>
+      <c r="J612" s="5"/>
     </row>
     <row r="613" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J613" s="7"/>
+      <c r="J613" s="5"/>
     </row>
     <row r="614" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J614" s="7"/>
+      <c r="J614" s="5"/>
     </row>
     <row r="615" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J615" s="7"/>
+      <c r="J615" s="5"/>
     </row>
     <row r="616" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J616" s="7"/>
+      <c r="J616" s="5"/>
     </row>
     <row r="617" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J617" s="7"/>
+      <c r="J617" s="5"/>
     </row>
     <row r="618" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J618" s="7"/>
+      <c r="J618" s="5"/>
     </row>
     <row r="619" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J619" s="7"/>
+      <c r="J619" s="5"/>
     </row>
     <row r="620" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J620" s="7"/>
+      <c r="J620" s="5"/>
     </row>
     <row r="621" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J621" s="7"/>
+      <c r="J621" s="5"/>
     </row>
     <row r="622" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J622" s="7"/>
+      <c r="J622" s="5"/>
     </row>
     <row r="623" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J623" s="7"/>
+      <c r="J623" s="5"/>
     </row>
     <row r="624" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J624" s="7"/>
+      <c r="J624" s="5"/>
     </row>
     <row r="625" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J625" s="7"/>
+      <c r="J625" s="5"/>
     </row>
     <row r="626" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J626" s="7"/>
+      <c r="J626" s="5"/>
     </row>
     <row r="627" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J627" s="7"/>
+      <c r="J627" s="5"/>
     </row>
     <row r="628" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J628" s="7"/>
+      <c r="J628" s="5"/>
     </row>
     <row r="629" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J629" s="7"/>
+      <c r="J629" s="5"/>
     </row>
     <row r="630" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J630" s="7"/>
+      <c r="J630" s="5"/>
     </row>
     <row r="631" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J631" s="7"/>
+      <c r="J631" s="5"/>
     </row>
     <row r="632" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J632" s="7"/>
+      <c r="J632" s="5"/>
     </row>
     <row r="633" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J633" s="7"/>
+      <c r="J633" s="5"/>
     </row>
     <row r="634" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J634" s="7"/>
+      <c r="J634" s="5"/>
     </row>
     <row r="635" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J635" s="7"/>
+      <c r="J635" s="5"/>
     </row>
     <row r="636" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J636" s="7"/>
+      <c r="J636" s="5"/>
     </row>
     <row r="637" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J637" s="7"/>
+      <c r="J637" s="5"/>
     </row>
     <row r="638" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J638" s="7"/>
+      <c r="J638" s="5"/>
     </row>
     <row r="639" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J639" s="7"/>
+      <c r="J639" s="5"/>
     </row>
     <row r="640" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J640" s="7"/>
+      <c r="J640" s="5"/>
     </row>
     <row r="641" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J641" s="7"/>
+      <c r="J641" s="5"/>
     </row>
     <row r="642" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J642" s="7"/>
+      <c r="J642" s="5"/>
     </row>
     <row r="643" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J643" s="7"/>
+      <c r="J643" s="5"/>
     </row>
     <row r="644" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J644" s="7"/>
+      <c r="J644" s="5"/>
     </row>
     <row r="645" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J645" s="7"/>
+      <c r="J645" s="5"/>
     </row>
     <row r="646" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J646" s="7"/>
+      <c r="J646" s="5"/>
     </row>
     <row r="647" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J647" s="7"/>
+      <c r="J647" s="5"/>
     </row>
     <row r="648" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J648" s="7"/>
+      <c r="J648" s="5"/>
     </row>
     <row r="649" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J649" s="7"/>
+      <c r="J649" s="5"/>
     </row>
     <row r="650" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J650" s="7"/>
+      <c r="J650" s="5"/>
     </row>
     <row r="651" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J651" s="7"/>
+      <c r="J651" s="5"/>
     </row>
     <row r="652" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J652" s="7"/>
+      <c r="J652" s="5"/>
     </row>
     <row r="653" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J653" s="7"/>
+      <c r="J653" s="5"/>
     </row>
     <row r="654" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J654" s="7"/>
+      <c r="J654" s="5"/>
     </row>
     <row r="655" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J655" s="7"/>
+      <c r="J655" s="5"/>
     </row>
     <row r="656" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J656" s="7"/>
+      <c r="J656" s="5"/>
     </row>
     <row r="657" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J657" s="7"/>
+      <c r="J657" s="5"/>
     </row>
     <row r="658" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J658" s="7"/>
+      <c r="J658" s="5"/>
     </row>
     <row r="659" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J659" s="7"/>
+      <c r="J659" s="5"/>
     </row>
     <row r="660" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J660" s="7"/>
+      <c r="J660" s="5"/>
     </row>
     <row r="661" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J661" s="7"/>
+      <c r="J661" s="5"/>
     </row>
     <row r="662" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J662" s="7"/>
+      <c r="J662" s="5"/>
     </row>
     <row r="663" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J663" s="7"/>
-    </row>
-    <row r="664" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J664" s="7"/>
-    </row>
-    <row r="665" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J665" s="7"/>
-    </row>
-    <row r="666" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J666" s="7"/>
-    </row>
-    <row r="667" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J667" s="7"/>
+      <c r="J663" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:L246">
-    <sortCondition ref="I102:I246"/>
-    <sortCondition ref="B102:B246"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:L242">
+    <sortCondition ref="I102:I242"/>
+    <sortCondition ref="B102:B242"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
